--- a/Catalogo/perfumes.xlsx
+++ b/Catalogo/perfumes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>MARCA</t>
   </si>
@@ -52,12 +52,18 @@
     <t>ANIMÁLICO</t>
   </si>
   <si>
+    <t>img/sadonaso.png</t>
+  </si>
+  <si>
     <t>BARAONDA</t>
   </si>
   <si>
     <t>AMADERADO</t>
   </si>
   <si>
+    <t>img/baraonda-png.png</t>
+  </si>
+  <si>
     <t>NARCOTIC V</t>
   </si>
   <si>
@@ -67,67 +73,82 @@
     <t>FRUTAL</t>
   </si>
   <si>
+    <t>img/nasomatto-narcoticv.png</t>
+  </si>
+  <si>
     <t>ABSINTH</t>
   </si>
   <si>
     <t>FORESTAL</t>
   </si>
   <si>
+    <t>img/Absinth_Nasomatto.png</t>
+  </si>
+  <si>
     <t>PARDON</t>
   </si>
   <si>
     <t>AMBARADO</t>
   </si>
   <si>
+    <t>img/nasomatto-pardon_2.png</t>
+  </si>
+  <si>
     <t>BLAMAGE</t>
   </si>
   <si>
+    <t>img/Blamage_.png</t>
+  </si>
+  <si>
     <t>DURO</t>
   </si>
   <si>
     <t>MINERAL</t>
   </si>
   <si>
+    <t>img/nasomatto-duro_2.png</t>
+  </si>
+  <si>
     <t>FANTOMAS</t>
   </si>
   <si>
+    <t>img/packshot_fantomas_2.png</t>
+  </si>
+  <si>
     <t>SILVER MUSK</t>
   </si>
   <si>
     <t>ANIMALICO</t>
   </si>
   <si>
+    <t>img/nasomatto-silvermusk_2.png</t>
+  </si>
+  <si>
     <t>NUDIFLORUM</t>
   </si>
   <si>
+    <t>img/Nudiflorum.png</t>
+  </si>
+  <si>
     <t>BLACK AFGANO</t>
   </si>
   <si>
+    <t>img/nasomatto-blackafghano_2.png</t>
+  </si>
+  <si>
     <t>ESSENTIAL PARFUMS</t>
   </si>
   <si>
     <t>BOIS IMPERIAL</t>
   </si>
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBIPDw8QDw8QDxIQFg8QEA8NDw0QFRIWFxURFRUYHighGBolGxUVITEhJSksLi4uFx8zODMsNygtLisBCgoKDg0OGA8QGi0dHR0rKy0tLSsrLS0tKystLTArLS0tLSstNC84LSstLS0tKy0rLi03LSsrLSstKzcrLTc3Lf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAAAQQCAwUHCAb/xABDEAACAQIDAggMBAQFBQAAAAAAAQIDEQQSITFRBRQyQWFxgZEGBxMiNVJTc5KxwdFCcqGyCDRiojNDk+HwFSMlVIL/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQID/8QAHhEBAQEAAQUBAQAAAAAAAAAAAAERAhITMUFRYQP/2gAMAwEAAhEDEQA/AO8QAAAAAAAAAAAAAAwqVYx5Uox/M0vmBmCq+EaK/wA2n2ST+RWreEGDhy8TSj+aSRNg5MHD0/CnAS0jjKDfRUTLcOFsPLVVYNb76DYLoK8MdReyrTb3Z43LBQAAAAAAAAAAAAAAAAAAAAAAAAAAAAADzL4UeHfCGFx+JpwqwnCNaVo1acJ5VfZm0b7WemjyD4w/SeK96/mSjvbwR4NocIYGhicTRpOpWpqcstOKjd35nf5nyPjM4Qo8E1aNKhhKU1Wpyk3Jzg45ZJaZXY+58VnorCe4j9TrT+IX+Zwnuan7omZIr5peMCSTy4HD7PxzxE0uzMjfgPDSrUvLiXB0ZRdsyw9SUu+VRnwhynAuyXWjXTDX3UfDLGyWWM6dJbqdGnFLqumd1eLPETq8G0Z1JOc5Zm5Pa22eeKCPQPip9F0O36EyQfXgA0gAAAAAAAAAAAAAAAAAAAAAAAAAAB5C8YnpPE+9fzZ69PIXjF9JYn3j+bJ7HoDxWeisJ7iP1OtP4hf5nCe5qfuidl+Kz0VhPcR+p1p/EL/M4T3NT90SRXUxyfAv4+z6nGHJ8C/j/wDn6mkc9QPQHin9F0e35RPP1A7/APFN6Mp/mf7Yk9q+yABUAAAAAAAAAAAAAAAAAAAAAAAAAQ3bV7CssfText23RY0WjyF4xPSWI/O/mesZ4+Fna97aXTWp5x8OfAbH1cdVqUadOupyvaFWmppf1Rm1Yzs1cdu+Kz0VhPcR+p1r/EL/ADOE9zU/dE7N8X1N4bg7DUcQ40asKSjKE5RTi7vTadb+PjC1K+IwsqFOdaMaVROVKMqqi3KNk3G9iSwdQHJ8C/j7Pqav+jYr/wBXEf6NX7HLcBcAYyTklhMRra16U43270a2It4dnf3ijf8A4yH53+yB03R8DuEFZzwzpRvyqlSlFL+6/wCh3P4usO8HgYUa0ouWbNeGaUdiVk2lfYTZqvsQVuOw3v4ZfY2UcRCfJle3Wn+pdRtABQAAAAAAAAAAAAAAAAAAAAAaMc3kaWrei7TiKWGktt032WOT4RWkeiX0ZweKrtSy+UhCW1Z6c3Frmd1JfPmMcs9rFqtF7u3Q1U60ZNxjGM2lqqbhUdr211utdO8ihVWXzqlNy303GMf7pMr4LBUqNSpXp5PL1laVepOE6mX1U+ZaXskZ2fVbp036ji/yX07JI43EUqqnmVSaSVsnkouL6daqZyFSE5ba6XVWqR/RSsVsTwfGp/iVac+mUoy/dcxVVqvlpKym4dMKEVLv8sWqE5JJOMptK13TinLpf/cZWXAlDmnRXUqSt03tcVOA6MrKdWErbLzS+TRN/VXpYpRi705R3uKprvvLQzwuLhWWak4zj60Z055bW815W1foucLV8EcFNNVIYepGSs4yk9nQ810+lM5Lgfg+nho5I15zhzRqV4VlFWSsnLzubfz85qX7UcnGLfPp1r7mWFhKnNS2rY+op4qskvMq0YO65UXV/SM1qWMLVzxupKVvNzKLgpNLVq/Nfr2G5YjngY0uSupfIyOjIAAAAAAAAAAAAAAAAAAAAArY7krr+hRlBPRpNdKTL2O5K6/oymY5tRp4rT9nD4I/YnilP2dP4I/Y3NaFfjNPZmXKlHY+VFNyXYk+45z+cq6y4pT9nD4I/YcTp+zh8KNbxtKzedWWW7s7LMk496a7zLjELtXtlbTvGSSajmerXq6l7cNTxKl7OHwonidP2cPhQjWg05KV4xWZuzsk4qSfTo0zW8bStfOreZzP/MbUNOlpjtw1s4nT9nD4UOJ0/Zw+FfYxWKpvRS1TmuTLbBpSWzmbQoYqlUtkmpXUpK19VFpNp9Ddh24anitP2cPgibIoyYLxmJXKQ2LqRJEdi6iTqyAAAAAAAAAAAAAAAAAAAAAK+N5K6/oymXMZsXX9GVDPJYIw4vD1I6tvkrVvb833mxCckk29Ek23uSJx8FauLQ18yGu3zY6q1vkkiK1G6eVQU3rmlHMr2tdrn00NMeFaDipKonFxc08s7ZVmvfTT/Dno9Xle43RxVNqTUtIT8nLSStO6VtmurRRWjh6qvZUFdWsqcleN3p1Zcq7OwtyoQe2EXffFO5Vp8L4eVlGrF5qipqyk/PaXmvTR6raRS4Yw8lFqpy6bqxvGavTTleWz+l9OgFx0Y+rHTNzLTNyu/nEKMY8mMY7VpFLaYU8ZTlJxjNOUZyptK+k4xzOPYmbwMJASJZmLXJR2LqJIjsXUSdGQAAAAAAAAAAAAAAAAAAAABoxmxdf0ZULmL5Pb9GVDNWCElfR6p6W5n0EgnHwVRqU8PTcYOnTV4yjG1NNJN2cdFpdzfXdmMsVQi5KSjDNO7bilnkm1mdumDs36uhelBPVq9vvdGunh4Rvlild3e1q/O7MoqLG4eL0yrLpdU2sq5NtnRYxVbDQlKm6cIeTtHkRUcrT2W5ryafS2cjkW5dyIyLcu5AV6EKM7yjTheNR6uCTU1fztm3znr0stCxIGEtoqbH1P5GT2kTjdNb00SDkY7F1EkR2Em0AAAAAAAAAAAAAAAAAAAAAGnFcntKpaxPJ7SqZqhIRNlvMyyK016yha6k7+rGUu+2wxhiE1dKW1LkvnV/8An+5Yst403l6omKsMVFtK09cv4X+LYbJ1kraSd3bSL23tr3m7tFlvHVFxrpTUkpK9mr2acWutPYZGVlvFlvHVExgyWGGIOQQCBtAAAAAAAAAAAAAAAAAAAAABqxPJ7SqWsRs7SqSqgEg4NIBIAgEgCCQAABJ04+Eq8ADoyAAAAAAAAAAAAAAAAAAAAANWI2dpWLOI2dpWJVAAca0EEgggkAAAAAAOvHwzV4AG0AAAAAAAAAAAAAAAAAAAAAGrEbO0rMs4jZ2lclVjGV1feiSjOs6TyyXmc0+a3Mn0mxYyHrI41paBV40t5i8ZFc6JguAprHR9YyWKj6wFoFbjK3mNTFpLauq9i4LTezp+xJRwVaVSWZxy04rRt3zyfOuhK/eXjpx8M1eQIRJtAAAAAAAAAAAAAAAAAAAAABpxT0XTK36Mr5XuZYxWxdZVbJVTlb5jB4f+hdyJuHPrIMHQXqx7kQ6cfVj3I4HhSjiHNyo47yevJk4tbNji1b5FVYzhCD5WGrq+3NGl2u0n8jF5RcfTqEeaMe5E8Xi/wRfZE4HEcIYxZVSo0ZNpXbq2UXrp07P1MIPhCbWepQornUUpPqzXv+hOufDH0PFI+zj3RJjhIrZCK7I6Fbg6E4xeer5R33t27WXMxuYjNU5bg6ctzMUw79JRfjsXUSRHYuok0gAAAAAAAAAAAAAAAAAAAAAhojIty7kZADHIty7kMi3LuMgBjkW5dyHk4+qu5GQAw8lH1V3Inya3LuRkAIyrcu4ZVuXcSAIyrcu4ZVuXcSAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD//Z</t>
-  </si>
-  <si>
     <t>FIG INFUSION</t>
   </si>
   <si>
-    <t>https://fimgs.net/mdimg/perfume-thumbs/375x500.73092.jpg</t>
-  </si>
-  <si>
     <t>VELVET IRIS</t>
   </si>
   <si>
-    <t>https://fimgs.net/mdimg/perfume-thumbs/375x500.103276.jpg</t>
-  </si>
-  <si>
     <t>THE MUSC</t>
-  </si>
-  <si>
-    <t>https://fimgs.net/mdimg/perfume-thumbs/375x500.50790.jpg</t>
   </si>
   <si>
     <t>ORANGE X SANTAL</t>
@@ -224,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -247,10 +268,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -283,13 +300,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -602,7 +616,8 @@
     <col customWidth="1" min="3" max="3" width="19.86"/>
     <col customWidth="1" min="4" max="4" width="22.71"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
-    <col customWidth="1" min="6" max="26" width="10.71"/>
+    <col customWidth="1" min="6" max="6" width="35.57"/>
+    <col customWidth="1" min="7" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -642,26 +657,30 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4">
@@ -669,37 +688,41 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6">
@@ -707,18 +730,20 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7">
@@ -726,37 +751,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9">
@@ -764,35 +793,39 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11">
@@ -800,16 +833,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12">
@@ -817,224 +852,218 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
+      <c r="A13" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
+      <c r="A15" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
+      <c r="A16" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
+      <c r="A17" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
+      <c r="A18" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>28</v>
+      <c r="A19" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>28</v>
+      <c r="A20" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
+      <c r="A21" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>28</v>
+      <c r="A22" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>28</v>
+      <c r="A23" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
+      <c r="A24" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1042,16 +1071,16 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1059,16 +1088,16 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1076,13 +1105,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
@@ -1093,13 +1122,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
@@ -1110,16 +1139,16 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1127,16 +1156,16 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1144,16 +1173,16 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1161,13 +1190,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>10</v>
@@ -1178,13 +1207,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
@@ -1195,16 +1224,16 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1212,13 +1241,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>9</v>
@@ -1229,16 +1258,16 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1246,13 +1275,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>9</v>
@@ -1263,16 +1292,16 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1280,16 +1309,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1297,16 +1326,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1314,13 +1343,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -1331,16 +1360,16 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1348,16 +1377,16 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2381,17 +2410,12 @@
       <formula>NOT(ISERROR(SEARCH(("AMADERADO"),(D22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="F14"/>
-    <hyperlink r:id="rId2" ref="F15"/>
-    <hyperlink r:id="rId3" ref="F16"/>
-  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Catalogo/perfumes.xlsx
+++ b/Catalogo/perfumes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="149">
   <si>
     <t>MARCA</t>
   </si>
@@ -25,13 +25,13 @@
     <t>PERFUME</t>
   </si>
   <si>
-    <t>PERFIL</t>
+    <t>PERFIL PRINCIPAL</t>
   </si>
   <si>
     <t>PERFIL SECUNDARIO</t>
   </si>
   <si>
-    <t>DEFINICIONES</t>
+    <t>ACORDES</t>
   </si>
   <si>
     <t>IMAGEN</t>
@@ -43,13 +43,13 @@
     <t>SADONASO</t>
   </si>
   <si>
-    <t>ANÍMALICO</t>
+    <t>ANIMÁLICO</t>
   </si>
   <si>
     <t>GOURMAND</t>
   </si>
   <si>
-    <t>ANIMÁLICO</t>
+    <t>ALMIZCLADO, AVAINILLADO, ATALCADO, CÁLIDO ESPECIADO</t>
   </si>
   <si>
     <t>img/sadonaso.png</t>
@@ -61,6 +61,9 @@
     <t>AMADERADO</t>
   </si>
   <si>
+    <t>ALCOHÓLICO, ALMIZCLADO, FLORAL, CÁLIDO ESPECIADO</t>
+  </si>
+  <si>
     <t>img/baraonda-png.png</t>
   </si>
   <si>
@@ -70,67 +73,91 @@
     <t>FLORAL</t>
   </si>
   <si>
+    <t>ALMIZCLADO, VERDE, ESPECIADO</t>
+  </si>
+  <si>
+    <t>img/nasomatto-narcoticv.png</t>
+  </si>
+  <si>
+    <t>ABSINTH</t>
+  </si>
+  <si>
+    <t>FORESTAL</t>
+  </si>
+  <si>
+    <t>AROMÁTICO, VERDE, TERROSO, ESPECIADO</t>
+  </si>
+  <si>
+    <t>img/Absinth_Nasomatto.png</t>
+  </si>
+  <si>
+    <t>PARDON</t>
+  </si>
+  <si>
+    <t>CÁLIDO ESPECIADO, FLORAL</t>
+  </si>
+  <si>
+    <t>img/nasomatto-pardon_2.png</t>
+  </si>
+  <si>
+    <t>BLAMAGE</t>
+  </si>
+  <si>
+    <t>AHUMADO, ALMIZCLADO, ATALCADO, CUERO</t>
+  </si>
+  <si>
+    <t>img/Blamage_.png</t>
+  </si>
+  <si>
+    <t>DURO</t>
+  </si>
+  <si>
+    <t>AHUMADO, CÁLIDO ESPECIADO</t>
+  </si>
+  <si>
+    <t>img/nasomatto-duro_2.png</t>
+  </si>
+  <si>
+    <t>FANTOMAS</t>
+  </si>
+  <si>
     <t>FRUTAL</t>
   </si>
   <si>
-    <t>img/nasomatto-narcoticv.png</t>
-  </si>
-  <si>
-    <t>ABSINTH</t>
-  </si>
-  <si>
-    <t>FORESTAL</t>
-  </si>
-  <si>
-    <t>img/Absinth_Nasomatto.png</t>
-  </si>
-  <si>
-    <t>PARDON</t>
+    <t>MINERAL</t>
+  </si>
+  <si>
+    <t>DULCE, PLASTICOSO, TERROSO, OZÓNICO, METÁLICO</t>
+  </si>
+  <si>
+    <t>img/packshot_fantomas_2.png</t>
+  </si>
+  <si>
+    <t>SILVER MUSK</t>
+  </si>
+  <si>
+    <t>ALMIZCLADO, METÁLICO, ATALCADO, DULCE</t>
+  </si>
+  <si>
+    <t>img/nasomatto-silvermusk_2.png</t>
+  </si>
+  <si>
+    <t>NUDIFLORUM</t>
+  </si>
+  <si>
+    <t>FRUTAL, VERDE, MUSGOSO, ALMIZCLADO, FORESTAL</t>
+  </si>
+  <si>
+    <t>img/Nudiflorum.png</t>
+  </si>
+  <si>
+    <t>BLACK AFGANO</t>
   </si>
   <si>
     <t>AMBARADO</t>
   </si>
   <si>
-    <t>img/nasomatto-pardon_2.png</t>
-  </si>
-  <si>
-    <t>BLAMAGE</t>
-  </si>
-  <si>
-    <t>img/Blamage_.png</t>
-  </si>
-  <si>
-    <t>DURO</t>
-  </si>
-  <si>
-    <t>MINERAL</t>
-  </si>
-  <si>
-    <t>img/nasomatto-duro_2.png</t>
-  </si>
-  <si>
-    <t>FANTOMAS</t>
-  </si>
-  <si>
-    <t>img/packshot_fantomas_2.png</t>
-  </si>
-  <si>
-    <t>SILVER MUSK</t>
-  </si>
-  <si>
-    <t>ANIMALICO</t>
-  </si>
-  <si>
-    <t>img/nasomatto-silvermusk_2.png</t>
-  </si>
-  <si>
-    <t>NUDIFLORUM</t>
-  </si>
-  <si>
-    <t>img/Nudiflorum.png</t>
-  </si>
-  <si>
-    <t>BLACK AFGANO</t>
+    <t>AHUMADO, BALSÁMICO, FORESTAL, CÁLIDO ESPECIADO</t>
   </si>
   <si>
     <t>img/nasomatto-blackafghano_2.png</t>
@@ -142,110 +169,308 @@
     <t>BOIS IMPERIAL</t>
   </si>
   <si>
+    <t>img/bois_imperial.png</t>
+  </si>
+  <si>
     <t>FIG INFUSION</t>
   </si>
   <si>
+    <t>img/figinfusion.png</t>
+  </si>
+  <si>
     <t>VELVET IRIS</t>
   </si>
   <si>
+    <t>img/velvetiris.png</t>
+  </si>
+  <si>
     <t>THE MUSC</t>
   </si>
   <si>
+    <t>img/themusc.png</t>
+  </si>
+  <si>
     <t>ORANGE X SANTAL</t>
   </si>
   <si>
+    <t>img/orangesantal.png</t>
+  </si>
+  <si>
     <t>MON VETIVER</t>
   </si>
   <si>
+    <t>img/monvetiver.png</t>
+  </si>
+  <si>
     <t>NEROLI BOTANICA</t>
   </si>
   <si>
+    <t>img/nerolibotanica.png</t>
+  </si>
+  <si>
     <t>NICE BERGAMOT</t>
   </si>
   <si>
+    <t>img/nicebergamot.png</t>
+  </si>
+  <si>
     <t>DIVINE VANILLE</t>
   </si>
   <si>
+    <t>img/divinevanille.png</t>
+  </si>
+  <si>
     <t>PATCHOULI MANIA</t>
   </si>
   <si>
+    <t>img/patchoulimania.png</t>
+  </si>
+  <si>
     <t>ROSE MAGNETIC</t>
   </si>
   <si>
+    <t>img/Rosemag.png</t>
+  </si>
+  <si>
     <t>BOIS IMPERIAL EXTRAIT</t>
   </si>
   <si>
+    <t>img/boisimpext.png</t>
+  </si>
+  <si>
     <t>STEPHAN H. LUCAS</t>
   </si>
   <si>
     <t>GOD OF FIRE</t>
   </si>
   <si>
+    <t>img/godoffire.png</t>
+  </si>
+  <si>
     <t>MORTAL SKIN</t>
   </si>
   <si>
+    <t>img/mortalskin.png</t>
+  </si>
+  <si>
     <t>MANGO KISS</t>
   </si>
   <si>
+    <t>img/mangokiss.png</t>
+  </si>
+  <si>
     <t>SOLEIL DE JEDDAH</t>
   </si>
   <si>
+    <t>img/soleildejeddah.png</t>
+  </si>
+  <si>
     <t>SEA MY LOVE</t>
   </si>
   <si>
+    <t>img/seamylove.png</t>
+  </si>
+  <si>
     <t>SAND DANCE</t>
   </si>
   <si>
+    <t>img/sanddance.png</t>
+  </si>
+  <si>
     <t>VENOM INCARNAT</t>
   </si>
   <si>
+    <t>img/venomincarnat.png</t>
+  </si>
+  <si>
     <t>LADY WHITE SNAKE</t>
   </si>
   <si>
+    <t>img/ladywhitesnake.png</t>
+  </si>
+  <si>
     <t>PINK BOA</t>
   </si>
   <si>
+    <t>img/pinkboa.png</t>
+  </si>
+  <si>
     <t>GIARDINI DI TOSCANA</t>
   </si>
   <si>
     <t>BIANCO LATTE</t>
   </si>
   <si>
+    <t>img/biancolatte.png</t>
+  </si>
+  <si>
     <t>ALMAFOLIA</t>
   </si>
   <si>
+    <t>img/almafolia.png</t>
+  </si>
+  <si>
     <t>ROSSO RUBINO</t>
   </si>
   <si>
+    <t>img/rossorubino.png</t>
+  </si>
+  <si>
     <t>CELESTE</t>
   </si>
   <si>
+    <t>img/celeste.png</t>
+  </si>
+  <si>
     <t>BLU MARE</t>
   </si>
   <si>
+    <t>img/blumare.png</t>
+  </si>
+  <si>
     <t>COLONIA NOBILE</t>
   </si>
   <si>
     <t>CÍTRICO</t>
   </si>
   <si>
+    <t>img/colonianobile.png</t>
+  </si>
+  <si>
     <t>BIANCO ORO</t>
   </si>
   <si>
+    <t>img/biancooro.png</t>
+  </si>
+  <si>
     <t>BLU INDACO</t>
   </si>
   <si>
+    <t>img/bluindaco.png</t>
+  </si>
+  <si>
     <t>BORA BORA</t>
   </si>
   <si>
+    <t>img/borabora.png</t>
+  </si>
+  <si>
     <t>SCINTILLA</t>
+  </si>
+  <si>
+    <t>img/scintilla.png</t>
+  </si>
+  <si>
+    <t>ROOM 1015</t>
+  </si>
+  <si>
+    <t>CHERRY PUNK EXTRAIT</t>
+  </si>
+  <si>
+    <t>img/cherrypunkext.png</t>
+  </si>
+  <si>
+    <t>ROOM 1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHERRY PUNK </t>
+  </si>
+  <si>
+    <t>img/cherrypunk.png</t>
+  </si>
+  <si>
+    <t>ROOM 1017</t>
+  </si>
+  <si>
+    <t>WAVECHILD</t>
+  </si>
+  <si>
+    <t>img/wavechild.png</t>
+  </si>
+  <si>
+    <t>ROOM 1018</t>
+  </si>
+  <si>
+    <t>HOLLYROSE</t>
+  </si>
+  <si>
+    <t>img/hollyrose.png</t>
+  </si>
+  <si>
+    <t>ROOM 1019</t>
+  </si>
+  <si>
+    <t>ELECTRIC WOOD</t>
+  </si>
+  <si>
+    <t>img/electricwood.png</t>
+  </si>
+  <si>
+    <t>ROOM 1020</t>
+  </si>
+  <si>
+    <t>PURPLE MANTRA</t>
+  </si>
+  <si>
+    <t>img/purplemantra.png</t>
+  </si>
+  <si>
+    <t>ROOM 1021</t>
+  </si>
+  <si>
+    <t>SWEET LEAF</t>
+  </si>
+  <si>
+    <t>img/sweetleaf.png</t>
+  </si>
+  <si>
+    <t>ROOM 1022</t>
+  </si>
+  <si>
+    <t>JASMINE FREAK</t>
+  </si>
+  <si>
+    <t>img/jasminefreak.png</t>
+  </si>
+  <si>
+    <t>ROOM 1023</t>
+  </si>
+  <si>
+    <t>YESTERDAY</t>
+  </si>
+  <si>
+    <t>AROMÁTICO</t>
+  </si>
+  <si>
+    <t>img/yesterday.png</t>
+  </si>
+  <si>
+    <t>ROOM 1024</t>
+  </si>
+  <si>
+    <t>SONIC FLOWER</t>
+  </si>
+  <si>
+    <t>img/sonicflower.png</t>
+  </si>
+  <si>
+    <t>ROOM 1025</t>
+  </si>
+  <si>
+    <t>LOVE-O-MATIC</t>
+  </si>
+  <si>
+    <t>OZÓNICO, LIMPIO, ALDEHÍDICO</t>
+  </si>
+  <si>
+    <t>img/loveomatic.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -260,6 +485,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -300,10 +530,16 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -388,7 +624,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:G43" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:G44" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="7">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -614,8 +850,8 @@
     <col customWidth="1" min="1" max="1" width="20.86"/>
     <col customWidth="1" min="2" max="2" width="30.86"/>
     <col customWidth="1" min="3" max="3" width="19.86"/>
-    <col customWidth="1" min="4" max="4" width="22.71"/>
-    <col customWidth="1" min="5" max="5" width="15.0"/>
+    <col customWidth="1" min="4" max="4" width="20.71"/>
+    <col customWidth="1" min="5" max="5" width="53.0"/>
     <col customWidth="1" min="6" max="6" width="35.57"/>
     <col customWidth="1" min="7" max="26" width="10.71"/>
   </cols>
@@ -627,13 +863,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -648,19 +884,19 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -675,11 +911,11 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -688,40 +924,40 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -730,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -738,11 +974,11 @@
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -751,40 +987,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -793,38 +1029,40 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -833,17 +1071,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -852,557 +1092,802 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>39</v>
+      <c r="A13" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>39</v>
+      <c r="A14" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
+      <c r="A16" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>39</v>
+      <c r="A17" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>39</v>
+      <c r="A18" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>39</v>
+      <c r="A19" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>39</v>
+      <c r="A20" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>39</v>
+      <c r="A21" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>39</v>
+      <c r="A22" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>39</v>
+      <c r="A23" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>39</v>
+      <c r="A24" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
+      <c r="F45" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
     <row r="57" ht="15.75" customHeight="1"/>

--- a/Catalogo/perfumes.xlsx
+++ b/Catalogo/perfumes.xlsx
@@ -442,7 +442,7 @@
     <t>TROPICAL, CREMOSO, DULCE, AVAINILLADO, LACTÓNICO</t>
   </si>
   <si>
-    <t>img/borabora.png</t>
+    <t>img/borabora-1.png</t>
   </si>
   <si>
     <t>SCINTILLA</t>

--- a/Catalogo/perfumes.xlsx
+++ b/Catalogo/perfumes.xlsx
@@ -442,7 +442,7 @@
     <t>TROPICAL, CREMOSO, DULCE, AVAINILLADO, LACTÓNICO</t>
   </si>
   <si>
-    <t>img/borabora-1.png</t>
+    <t>img/Borabora-1.png</t>
   </si>
   <si>
     <t>SCINTILLA</t>
